--- a/Income/GLW_inc.xlsx
+++ b/Income/GLW_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.3258</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.304</v>
+        <v>0.3066</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.299</v>
+        <v>0.3016</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3102</v>
+        <v>0.3127</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3483</v>
+        <v>0.3508</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3739</v>
@@ -2489,16 +2489,16 @@
         <v>0.0366</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0181</v>
+        <v>0.0179</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0098</v>
+        <v>0.0096</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0243</v>
+        <v>0.0241</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0751</v>
+        <v>0.0749</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0957</v>
